--- a/output/extra_stats.xlsx
+++ b/output/extra_stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>max_rank</t>
   </si>
@@ -68,6 +68,27 @@
   </si>
   <si>
     <t>M2_12 Wild Hunt 2020</t>
+  </si>
+  <si>
+    <t>M3_01 Wolf 2021</t>
+  </si>
+  <si>
+    <t>M3_02 Love 2021</t>
+  </si>
+  <si>
+    <t>M3_03 Bear 2021</t>
+  </si>
+  <si>
+    <t>M3_04 Elf 2021</t>
+  </si>
+  <si>
+    <t>M3_05 Viper 2021</t>
+  </si>
+  <si>
+    <t>M3_06 Magic 2021</t>
+  </si>
+  <si>
+    <t>M3_07 Griffin 2021</t>
   </si>
 </sst>
 </file>
@@ -425,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,6 +712,146 @@
         <v>0.2849002849002849</v>
       </c>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>13428</v>
+      </c>
+      <c r="C14">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <v>3.723562704795949</v>
+      </c>
+      <c r="E14">
+        <v>1.489425081918379</v>
+      </c>
+      <c r="F14">
+        <v>0.4766160262138814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>16016</v>
+      </c>
+      <c r="C15">
+        <v>96</v>
+      </c>
+      <c r="D15">
+        <v>3.121878121878122</v>
+      </c>
+      <c r="E15">
+        <v>1.248751248751249</v>
+      </c>
+      <c r="F15">
+        <v>0.3996003996003996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>13636</v>
+      </c>
+      <c r="C16">
+        <v>192</v>
+      </c>
+      <c r="D16">
+        <v>3.666764447051921</v>
+      </c>
+      <c r="E16">
+        <v>1.466705778820768</v>
+      </c>
+      <c r="F16">
+        <v>0.4693458492226459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>16049</v>
+      </c>
+      <c r="C17">
+        <v>96</v>
+      </c>
+      <c r="D17">
+        <v>3.115458907097016</v>
+      </c>
+      <c r="E17">
+        <v>1.246183562838806</v>
+      </c>
+      <c r="F17">
+        <v>0.398778740108418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>17623</v>
+      </c>
+      <c r="C18">
+        <v>579</v>
+      </c>
+      <c r="D18">
+        <v>2.837201384554276</v>
+      </c>
+      <c r="E18">
+        <v>1.13488055382171</v>
+      </c>
+      <c r="F18">
+        <v>0.3631617772229473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>17442</v>
+      </c>
+      <c r="C19">
+        <v>96</v>
+      </c>
+      <c r="D19">
+        <v>2.866643733516799</v>
+      </c>
+      <c r="E19">
+        <v>1.14665749340672</v>
+      </c>
+      <c r="F19">
+        <v>0.3669303978901502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>16772</v>
+      </c>
+      <c r="C20">
+        <v>96</v>
+      </c>
+      <c r="D20">
+        <v>2.981159074648223</v>
+      </c>
+      <c r="E20">
+        <v>1.192463629859289</v>
+      </c>
+      <c r="F20">
+        <v>0.3815883615549726</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/extra_stats.xlsx
+++ b/output/extra_stats.xlsx
@@ -1,120 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>max_rank</t>
-  </si>
-  <si>
-    <t>min_mmr</t>
-  </si>
-  <si>
-    <t>top 500 (%)</t>
-  </si>
-  <si>
-    <t>top 200 (%)</t>
-  </si>
-  <si>
-    <t>top 64 (%)</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>M2_01 Wolf 2020</t>
-  </si>
-  <si>
-    <t>M2_02 Love 2020</t>
-  </si>
-  <si>
-    <t>M2_03 Bear 2020</t>
-  </si>
-  <si>
-    <t>M2_04 Elf 2020</t>
-  </si>
-  <si>
-    <t>M2_05 Viper 2020</t>
-  </si>
-  <si>
-    <t>M2_06 Magic 2020</t>
-  </si>
-  <si>
-    <t>M2_07 Griffin 2020</t>
-  </si>
-  <si>
-    <t>M2_08 Draconid 2020</t>
-  </si>
-  <si>
-    <t>M2_09 Dryad 2020</t>
-  </si>
-  <si>
-    <t>M2_10 Cat 2020</t>
-  </si>
-  <si>
-    <t>M2_11 Mahakam 2020</t>
-  </si>
-  <si>
-    <t>M2_12 Wild Hunt 2020</t>
-  </si>
-  <si>
-    <t>M3_01 Wolf 2021</t>
-  </si>
-  <si>
-    <t>M3_02 Love 2021</t>
-  </si>
-  <si>
-    <t>M3_03 Bear 2021</t>
-  </si>
-  <si>
-    <t>M3_04 Elf 2021</t>
-  </si>
-  <si>
-    <t>M3_05 Viper 2021</t>
-  </si>
-  <si>
-    <t>M3_06 Magic 2021</t>
-  </si>
-  <si>
-    <t>M3_07 Griffin 2021</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -129,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,414 +420,602 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>max_rank</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>min_mmr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>top 500 (%)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>top 200 (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>top 64 (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>M2_01 Wolf 2020</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>2997</v>
       </c>
-      <c r="C2">
-        <v>96</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="n">
+        <v>96</v>
+      </c>
+      <c r="D2" t="n">
         <v>16.68335001668335</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>6.67334000667334</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>2.135468802135469</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>M2_02 Love 2020</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>4883</v>
       </c>
-      <c r="C3">
-        <v>96</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>96</v>
+      </c>
+      <c r="D3" t="n">
         <v>10.23960679909892</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>4.095842719639566</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>1.310669670284661</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>M2_03 Bear 2020</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>6632</v>
       </c>
-      <c r="C4">
-        <v>96</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="n">
+        <v>96</v>
+      </c>
+      <c r="D4" t="n">
         <v>7.539203860072377</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>3.015681544028951</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.9650180940892642</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>M2_04 Elf 2020</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>10209</v>
       </c>
-      <c r="C5">
-        <v>96</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="n">
+        <v>96</v>
+      </c>
+      <c r="D5" t="n">
         <v>4.897639337839162</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>1.959055735135665</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.6268978352434127</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>M2_05 Viper 2020</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>10079</v>
       </c>
-      <c r="C6">
-        <v>96</v>
-      </c>
-      <c r="D6">
+      <c r="C6" t="n">
+        <v>96</v>
+      </c>
+      <c r="D6" t="n">
         <v>4.960809604127394</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>1.984323841650957</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.6349836293283064</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>M2_06 Magic 2020</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>9919</v>
       </c>
-      <c r="C7">
-        <v>96</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="n">
+        <v>96</v>
+      </c>
+      <c r="D7" t="n">
         <v>5.040830728904123</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>2.016332291561649</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.6452263332997278</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>M2_07 Griffin 2020</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>14791</v>
       </c>
-      <c r="C8">
-        <v>96</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="n">
+        <v>96</v>
+      </c>
+      <c r="D8" t="n">
         <v>3.380434047731729</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>1.352173619092691</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.4326955581096613</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>M2_08 Draconid 2020</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>13800</v>
       </c>
-      <c r="C9">
-        <v>96</v>
-      </c>
-      <c r="D9">
+      <c r="C9" t="n">
+        <v>96</v>
+      </c>
+      <c r="D9" t="n">
         <v>3.623188405797102</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>1.449275362318841</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.463768115942029</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>M2_09 Dryad 2020</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>14554</v>
       </c>
-      <c r="C10">
-        <v>96</v>
-      </c>
-      <c r="D10">
+      <c r="C10" t="n">
+        <v>96</v>
+      </c>
+      <c r="D10" t="n">
         <v>3.435481654527965</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>1.374192661811186</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>0.4397416517795795</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>M2_10 Cat 2020</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>16011</v>
       </c>
-      <c r="C11">
-        <v>96</v>
-      </c>
-      <c r="D11">
+      <c r="C11" t="n">
+        <v>96</v>
+      </c>
+      <c r="D11" t="n">
         <v>3.122853038536006</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>1.249141215414403</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.3997251889326088</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>M2_11 Mahakam 2020</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>16752</v>
       </c>
-      <c r="C12">
-        <v>96</v>
-      </c>
-      <c r="D12">
+      <c r="C12" t="n">
+        <v>96</v>
+      </c>
+      <c r="D12" t="n">
         <v>2.984718242597899</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>1.193887297039159</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>0.382043935052531</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>M2_12 Wild Hunt 2020</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>22464</v>
       </c>
-      <c r="C13">
-        <v>96</v>
-      </c>
-      <c r="D13">
+      <c r="C13" t="n">
+        <v>96</v>
+      </c>
+      <c r="D13" t="n">
         <v>2.225783475783476</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>0.8903133903133903</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>0.2849002849002849</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>M3_01 Wolf 2021</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>13428</v>
       </c>
-      <c r="C14">
-        <v>96</v>
-      </c>
-      <c r="D14">
+      <c r="C14" t="n">
+        <v>96</v>
+      </c>
+      <c r="D14" t="n">
         <v>3.723562704795949</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>1.489425081918379</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>0.4766160262138814</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>M3_02 Love 2021</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>16016</v>
       </c>
-      <c r="C15">
-        <v>96</v>
-      </c>
-      <c r="D15">
+      <c r="C15" t="n">
+        <v>96</v>
+      </c>
+      <c r="D15" t="n">
         <v>3.121878121878122</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>1.248751248751249</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>0.3996003996003996</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>M3_03 Bear 2021</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>13636</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>192</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>3.666764447051921</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>1.466705778820768</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>0.4693458492226459</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>M3_04 Elf 2021</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>16049</v>
       </c>
-      <c r="C17">
-        <v>96</v>
-      </c>
-      <c r="D17">
+      <c r="C17" t="n">
+        <v>96</v>
+      </c>
+      <c r="D17" t="n">
         <v>3.115458907097016</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>1.246183562838806</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>0.398778740108418</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>M3_05 Viper 2021</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>17623</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>579</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>2.837201384554276</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>1.13488055382171</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>0.3631617772229473</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>M3_06 Magic 2021</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>17442</v>
       </c>
-      <c r="C19">
-        <v>96</v>
-      </c>
-      <c r="D19">
+      <c r="C19" t="n">
+        <v>96</v>
+      </c>
+      <c r="D19" t="n">
         <v>2.866643733516799</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>1.14665749340672</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>0.3669303978901502</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>M3_07 Griffin 2021</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>16772</v>
       </c>
-      <c r="C20">
-        <v>96</v>
-      </c>
-      <c r="D20">
+      <c r="C20" t="n">
+        <v>96</v>
+      </c>
+      <c r="D20" t="n">
         <v>2.981159074648223</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>1.192463629859289</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>0.3815883615549726</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>M3_08 Draconid 2021</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17523</v>
+      </c>
+      <c r="C21" t="n">
+        <v>385</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.853392683901158</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.141357073560463</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3652342635393483</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>M3_09 Dryad 2021</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>17486</v>
+      </c>
+      <c r="C22" t="n">
+        <v>96</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.859430401464028</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.143772160585611</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3660070913873956</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>M3_10 Cat 2021</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>14048</v>
+      </c>
+      <c r="C23" t="n">
+        <v>96</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.559225512528474</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.42369020501139</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4555808656036446</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>M3_11 Mahakam 2021</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>19902</v>
+      </c>
+      <c r="C24" t="n">
+        <v>96</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.512310320570797</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.004924128228319</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.321575721033062</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>M3_12 Wild Hunt 2021</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>21651</v>
+      </c>
+      <c r="C25" t="n">
+        <v>96</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.309362154173018</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.923744861669207</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2955983557341462</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>M4_01 Wolf 2022</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>15520</v>
+      </c>
+      <c r="C26" t="n">
+        <v>192</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.221649484536083</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.288659793814433</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.4123711340206185</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>